--- a/Misc/ghBanners.xlsx
+++ b/Misc/ghBanners.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/VBA-pbUtil/Misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93955E72-9FF1-8648-A414-584548D1E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5583AF06-9727-7343-8507-33FB84D719FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="3240" windowWidth="30680" windowHeight="20240" xr2:uid="{A0BCE7D4-6CEF-2741-A7CB-45C3BE44EC3D}"/>
+    <workbookView xWindow="2040" yWindow="500" windowWidth="34940" windowHeight="26380" xr2:uid="{A0BCE7D4-6CEF-2741-A7CB-45C3BE44EC3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Banners" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -661,6 +661,811 @@
               <a:solidFill>
                 <a:srgbClr val="0432FF"/>
               </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C128BC1-D98A-DC4D-6F95-79CC4251F0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="4030482"/>
+          <a:ext cx="3771900" cy="681218"/>
+          <a:chOff x="152400" y="4030482"/>
+          <a:chExt cx="3771900" cy="681218"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E8B33F-29F2-7CFE-BD0F-E11B9A0619B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="4076700"/>
+            <a:ext cx="3771900" cy="622365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Picture 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F495B4AA-9971-B9F7-0BC1-D06821521704}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="260335" y="4150988"/>
+            <a:ext cx="187299" cy="300362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Picture 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540E3651-F0EC-0D4F-93D6-189527829620}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1142985" y="4316088"/>
+            <a:ext cx="187299" cy="300362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="101600">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7E921A-6CFC-744B-BEB3-C47E9AFD4C3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="431799" y="4132082"/>
+            <a:ext cx="1270001" cy="116068"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>Can you help me fix this .PasteSpecial code?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="TextBox 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D46BB7-11FA-9241-B670-82D2E3C46AD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="546099" y="4227332"/>
+            <a:ext cx="666751" cy="478018"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>What's</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t> wrong</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>with you man? </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>I explained this </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>yesterday!</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF568120-FDBE-F249-AA34-74FB8119578E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1758935" y="4163688"/>
+            <a:ext cx="187299" cy="300362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="TextBox 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA97388D-A799-CF4C-8618-1F059A00B5F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2025649" y="4030482"/>
+            <a:ext cx="603251" cy="325618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>But, it works like </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>80% of the time</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252E1412-533C-734F-B053-2D153E6D83E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1943099" y="4303532"/>
+            <a:ext cx="800101" cy="408168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>How do</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>  I copy values only, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>is there a way to filter out </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>hidden cells?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Picture 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1491EF-10FB-754A-953C-153084826C5C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3638535" y="4201788"/>
+            <a:ext cx="187299" cy="300362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="101600">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="TextBox 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE687391-C5B7-5449-AAE0-29A18B795579}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2755899" y="4170182"/>
+            <a:ext cx="800101" cy="408168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="accent5"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:extrusionClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:extrusionClr>
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>That's it.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t> I'm done. I'm creating</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>VBA Copy Right</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0432FF"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>Right Now!</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi MT Condensed Light" panose="020B0306030101010103" pitchFamily="34" charset="77"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -968,10 +1773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12AD1E2-8854-9E45-9937-970324FAD2E6}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Misc/ghBanners.xlsx
+++ b/Misc/ghBanners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3012C67-CFB8-B945-8321-2281B0904819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453C37D-62F0-B04B-A5A4-DD8E8DB0737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11080" yWindow="1000" windowWidth="31900" windowHeight="25740" xr2:uid="{A0BCE7D4-6CEF-2741-A7CB-45C3BE44EC3D}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="462034" y="5714916"/>
+              <a:off x="462034" y="5706158"/>
               <a:ext cx="187734" cy="297273"/>
             </a:xfrm>
             <a:prstGeom prst="rect">

--- a/Misc/ghBanners.xlsx
+++ b/Misc/ghBanners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/projects/just-VBA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453C37D-62F0-B04B-A5A4-DD8E8DB0737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69EAF4-2F73-AC44-86C4-D32749D3AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11080" yWindow="1000" windowWidth="31900" windowHeight="25740" xr2:uid="{A0BCE7D4-6CEF-2741-A7CB-45C3BE44EC3D}"/>
   </bookViews>
@@ -35,14 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">schedule in rhe 8AM to noon timeframe </t>
-  </si>
-  <si>
-    <t>Kristin</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2066,6 +2059,57 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>503621</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Reddit -- ITFuture"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02397018-2C1F-2649-950A-3F5C387B8D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503621" y="4059621"/>
+          <a:ext cx="281141" cy="446028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2367,25 +2411,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12AD1E2-8854-9E45-9937-970324FAD2E6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B26:B27"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
